--- a/biology/Médecine/Amnésie_antérograde/Amnésie_antérograde.xlsx
+++ b/biology/Médecine/Amnésie_antérograde/Amnésie_antérograde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Amn%C3%A9sie_ant%C3%A9rograde</t>
+          <t>Amnésie_antérograde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'amnésie antérograde est un trouble de la mémoire qui porte sur les faits postérieurs à l'accident ou à la maladie qui l'a provoquée. Elle est la conséquence de l'altération de certaines zones du cortex préfrontal, mais aussi occipital et pariétal. En effet, il s'agit de dysfonctionnement des réseaux neuronaux impliqués dans l'apprentissage et la mémoire de travail. Le sujet est dans l'incapacité de former de nouveaux souvenirs, il oublie les événements au fur et à mesure de leur déroulement.
 L'amnésie antérograde se distingue de l'amnésie rétrograde, qui désigne l'incapacité à se souvenir des événements survenus avant le début de l'amnésie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amn%C3%A9sie_ant%C3%A9rograde</t>
+          <t>Amnésie_antérograde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>À partir d’un temps donné, l’amnésique donne l’impression qu’il n’apprend plus. L'amnésie antérograde se caractérise en cinq points :
 Notion de délai/compétition : pour vérifier qu’un patient est amnésique, il faut tout de même laisser passer un peu de temps avant de lui demander de restituer une information : un délai est nécessaire (souvent, quelques minutes). Le patient amnésique « oublie » d’autant plus vite qu’il est occupé par une activité pendant le délai.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amn%C3%A9sie_ant%C3%A9rograde</t>
+          <t>Amnésie_antérograde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Cinématographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le cycle romanesque Soldat des brumes de Gene Wolfe (premier volume publié en 1986), le héros, Latro, perd la mémoire à chaque nuit de sommeil. Il doit noter tout ce qu'il a vécu sur un rouleau qui constitue le récit.
 Dans Memento (2000), Guy Pearce campe un amnésique dont les difficultés mémorielles sont apparues à la suite d'une agression.
